--- a/examples/HFP_jon+jane.xlsx
+++ b/examples/HFP_jon+jane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DE5D4-AA08-4FA2-86B1-F370E8BA39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB8D20-CBB9-496E-9307-0596BB8D1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>commission</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -1602,31 +1605,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBBF82-1B1F-4944-81F7-996E5CAB86D9}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1637,34 +1643,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA369D17-637D-4893-A7DC-912619ADF143}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/examples/HFP_jon+jane.xlsx
+++ b/examples/HFP_jon+jane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB8D20-CBB9-496E-9307-0596BB8D1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1544A6-5C0A-4985-8426-F912100898F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jon" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -588,7 +588,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B7" s="1">
         <v>120000</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B8" s="1">
         <v>120000</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B9" s="1">
         <v>120000</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B10" s="1">
         <v>120000</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B11" s="1">
         <v>120000</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -695,7 +695,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -786,7 +786,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -799,7 +799,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -903,7 +903,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -981,7 +981,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1005,11 +1005,6 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2055</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1018,10 +1013,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1063,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1083,7 +1078,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1097,7 +1092,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1112,7 +1107,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1127,7 +1122,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1142,7 +1137,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B7" s="1">
         <v>80000</v>
@@ -1159,7 +1154,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B8" s="1">
         <v>80000</v>
@@ -1176,7 +1171,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B9" s="1">
         <v>80000</v>
@@ -1193,7 +1188,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B10" s="1">
         <v>80000</v>
@@ -1210,7 +1205,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B11" s="1">
         <v>80000</v>
@@ -1227,7 +1222,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B12" s="1">
         <v>80000</v>
@@ -1244,7 +1239,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B13" s="1">
         <v>80000</v>
@@ -1261,7 +1256,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B14" s="1">
         <v>80000</v>
@@ -1278,7 +1273,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1291,7 +1286,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1304,7 +1299,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1317,7 +1312,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1330,7 +1325,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1343,7 +1338,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1356,7 +1351,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1369,7 +1364,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1382,7 +1377,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1395,7 +1390,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1408,7 +1403,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1421,7 +1416,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1434,7 +1429,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1447,7 +1442,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1460,7 +1455,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1473,7 +1468,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1486,7 +1481,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1499,7 +1494,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1512,7 +1507,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1525,7 +1520,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1538,7 +1533,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1551,7 +1546,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1564,7 +1559,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1577,7 +1572,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1590,11 +1585,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
         <v>2058</v>
       </c>
     </row>
@@ -1607,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBBF82-1B1F-4944-81F7-996E5CAB86D9}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/examples/HFP_jon+jane.xlsx
+++ b/examples/HFP_jon+jane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/Owl/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1544A6-5C0A-4985-8426-F912100898F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846AD8CE-12CB-964B-9010-3E03F34C512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -476,24 +476,24 @@
       <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -535,7 +535,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -1015,24 +1015,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2056</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2057</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2058</v>
       </c>
@@ -1598,12 +1598,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1633,15 +1633,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA369D17-637D-4893-A7DC-912619ADF143}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1651,19 +1651,22 @@
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/examples/HFP_jon+jane.xlsx
+++ b/examples/HFP_jon+jane.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
